--- a/LogCoordinates.xlsx
+++ b/LogCoordinates.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>15_12-14</t>
   </si>
   <si>
     <t>15_12-19</t>
@@ -583,10 +580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,55 +606,55 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>58.077908890000003</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.8905119399999999</v>
+      <c r="B2" s="5">
+        <v>58.001011944444443</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0851022222222222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>58.001011944444443</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.0851022222222222</v>
+      <c r="B3" s="2">
+        <v>58.141958330000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.92985278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>58.141958330000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.92985278</v>
+      <c r="B4" s="7">
+        <v>58.227926111111103</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.8824608333333335</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>58.227926111111103</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.8824608333333335</v>
+      <c r="B5" s="9">
+        <v>58.216884444444446</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.8844097222222222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
-        <v>58.216884444444446</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1.8844097222222222</v>
+      <c r="B6" s="2">
+        <v>58.052544439999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.9032249999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>58.052544439999998</v>
+        <v>58.081488890000003</v>
       </c>
       <c r="C7" s="2">
-        <v>1.9032249999999999</v>
+        <v>1.9147888900000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,10 +673,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>58.081488890000003</v>
+        <v>58.050513889999998</v>
       </c>
       <c r="C8" s="2">
-        <v>1.9147888900000001</v>
+        <v>1.96761389</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>58.050513889999998</v>
+        <v>58.755436109999998</v>
       </c>
       <c r="C9" s="2">
-        <v>1.96761389</v>
+        <v>1.5945944400000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,10 +695,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>58.755436109999998</v>
+        <v>58.983347219999999</v>
       </c>
       <c r="C10" s="2">
-        <v>1.5945944400000001</v>
+        <v>1.7868333300000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>58.983347219999999</v>
+        <v>58.875347220000002</v>
       </c>
       <c r="C11" s="2">
-        <v>1.7868333300000001</v>
+        <v>1.7795194400000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,10 +717,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>58.875347220000002</v>
+        <v>58.818133060000001</v>
       </c>
       <c r="C12" s="2">
-        <v>1.7795194400000001</v>
+        <v>1.8832825</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,10 +728,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>58.818133060000001</v>
+        <v>58.786955560000003</v>
       </c>
       <c r="C13" s="2">
-        <v>1.8832825</v>
+        <v>1.84280833</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>58.786955560000003</v>
+        <v>58.584547219999997</v>
       </c>
       <c r="C14" s="2">
-        <v>1.84280833</v>
+        <v>1.6523194400000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,10 +750,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>58.584547219999997</v>
+        <v>58.643527779999999</v>
       </c>
       <c r="C15" s="2">
-        <v>1.6523194400000001</v>
+        <v>1.6045833300000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,32 +761,32 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>58.643527779999999</v>
+        <v>58.763313889999999</v>
       </c>
       <c r="C16" s="2">
-        <v>1.6045833300000001</v>
+        <v>1.6366805600000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>58.763313889999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.6366805600000001</v>
+      <c r="B17" s="11">
+        <v>58.630143055555557</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.7376341666666666</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11">
-        <v>58.630143055555557</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1.7376341666666666</v>
+      <c r="B18" s="2">
+        <v>58.546555560000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.69836111</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,10 +794,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>58.546555560000002</v>
+        <v>58.504416669999998</v>
       </c>
       <c r="C19" s="2">
-        <v>1.69836111</v>
+        <v>1.7109722199999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>58.504416669999998</v>
+        <v>58.62621944</v>
       </c>
       <c r="C20" s="2">
-        <v>1.7109722199999999</v>
+        <v>1.80553889</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,10 +816,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>58.62621944</v>
+        <v>58.508305559999997</v>
       </c>
       <c r="C21" s="2">
-        <v>1.80553889</v>
+        <v>1.7640833300000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,10 +827,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>58.508305559999997</v>
+        <v>58.520713890000003</v>
       </c>
       <c r="C22" s="2">
-        <v>1.7640833300000001</v>
+        <v>1.74827222</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,10 +838,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>58.520713890000003</v>
+        <v>58.36336111</v>
       </c>
       <c r="C23" s="2">
-        <v>1.74827222</v>
+        <v>1.57286389</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>58.36336111</v>
+        <v>58.471944440000001</v>
       </c>
       <c r="C24" s="2">
-        <v>1.57286389</v>
+        <v>1.7532666699999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,10 +860,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>58.471944440000001</v>
+        <v>58.328588889999999</v>
       </c>
       <c r="C25" s="2">
-        <v>1.7532666699999999</v>
+        <v>1.77239167</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,10 +871,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>58.328588889999999</v>
+        <v>58.400888889999997</v>
       </c>
       <c r="C26" s="2">
-        <v>1.77239167</v>
+        <v>1.8949722200000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,10 +882,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>58.400888889999997</v>
+        <v>58.456436109999999</v>
       </c>
       <c r="C27" s="2">
-        <v>1.8949722200000001</v>
+        <v>1.71778056</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,10 +893,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>58.456436109999999</v>
+        <v>58.373877780000001</v>
       </c>
       <c r="C28" s="2">
-        <v>1.71778056</v>
+        <v>1.9341277800000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,10 +904,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>58.373877780000001</v>
+        <v>58.289774999999999</v>
       </c>
       <c r="C29" s="2">
-        <v>1.9341277800000001</v>
+        <v>1.69112778</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +915,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>58.289774999999999</v>
+        <v>58.302041670000001</v>
       </c>
       <c r="C30" s="2">
-        <v>1.69112778</v>
+        <v>1.9220222199999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,10 +926,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>58.302041670000001</v>
+        <v>58.369436110000002</v>
       </c>
       <c r="C31" s="2">
-        <v>1.9220222199999999</v>
+        <v>1.8786555599999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,10 +937,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>58.369436110000002</v>
+        <v>58.445608329999999</v>
       </c>
       <c r="C32" s="2">
-        <v>1.8786555599999999</v>
+        <v>1.9482166700000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,10 +948,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>58.445608329999999</v>
+        <v>58.350541669999998</v>
       </c>
       <c r="C33" s="2">
-        <v>1.9482166700000001</v>
+        <v>1.8034083299999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,32 +959,32 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>58.350541669999998</v>
+        <v>58.426127780000002</v>
       </c>
       <c r="C34" s="2">
-        <v>1.8034083299999999</v>
+        <v>1.7078333299999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
-        <v>58.426127780000002</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.7078333299999999</v>
+      <c r="B35" s="3">
+        <v>58.2743122222222</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.9821869444444444</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3">
-        <v>58.2743122222222</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.9821869444444444</v>
+      <c r="B36" s="2">
+        <v>58.400072219999998</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.78525833</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,10 +992,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>58.400072219999998</v>
+        <v>58.403463889999998</v>
       </c>
       <c r="C37" s="2">
-        <v>1.78525833</v>
+        <v>1.7081111099999999</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,10 +1003,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>58.403463889999998</v>
+        <v>58.453749999999999</v>
       </c>
       <c r="C38" s="2">
-        <v>1.7081111099999999</v>
+        <v>1.69205556</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,10 +1014,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>58.453749999999999</v>
+        <v>58.382241669999999</v>
       </c>
       <c r="C39" s="2">
-        <v>1.69205556</v>
+        <v>1.7127749999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,10 +1025,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>58.382241669999999</v>
+        <v>58.382169439999998</v>
       </c>
       <c r="C40" s="2">
-        <v>1.7127749999999999</v>
+        <v>1.7745333299999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,20 +1036,9 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>58.382169439999998</v>
+        <v>58.346499999999999</v>
       </c>
       <c r="C41" s="2">
-        <v>1.7745333299999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>58.346499999999999</v>
-      </c>
-      <c r="C42" s="2">
         <v>1.8901666699999999</v>
       </c>
     </row>

--- a/LogCoordinates.xlsx
+++ b/LogCoordinates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADemir\Desktop\Workspace\WellLog_Depth_Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{035F9152-409D-4DB9-B85C-87978A5D6FB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Latitude</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>15_8-1</t>
-  </si>
-  <si>
-    <t>15_9-1</t>
   </si>
   <si>
     <t>15_9-10</t>
@@ -150,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,12 +576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,10 +847,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>58.471944440000001</v>
+        <v>58.328588889999999</v>
       </c>
       <c r="C24" s="2">
-        <v>1.7532666699999999</v>
+        <v>1.77239167</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,10 +858,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>58.328588889999999</v>
+        <v>58.400888889999997</v>
       </c>
       <c r="C25" s="2">
-        <v>1.77239167</v>
+        <v>1.8949722200000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,10 +869,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>58.400888889999997</v>
+        <v>58.456436109999999</v>
       </c>
       <c r="C26" s="2">
-        <v>1.8949722200000001</v>
+        <v>1.71778056</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,10 +880,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>58.456436109999999</v>
+        <v>58.373877780000001</v>
       </c>
       <c r="C27" s="2">
-        <v>1.71778056</v>
+        <v>1.9341277800000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,10 +891,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>58.373877780000001</v>
+        <v>58.289774999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>1.9341277800000001</v>
+        <v>1.69112778</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,10 +902,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>58.289774999999999</v>
+        <v>58.302041670000001</v>
       </c>
       <c r="C29" s="2">
-        <v>1.69112778</v>
+        <v>1.9220222199999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,10 +913,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>58.302041670000001</v>
+        <v>58.369436110000002</v>
       </c>
       <c r="C30" s="2">
-        <v>1.9220222199999999</v>
+        <v>1.8786555599999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,10 +924,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>58.369436110000002</v>
+        <v>58.445608329999999</v>
       </c>
       <c r="C31" s="2">
-        <v>1.8786555599999999</v>
+        <v>1.9482166700000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,10 +935,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>58.445608329999999</v>
+        <v>58.350541669999998</v>
       </c>
       <c r="C32" s="2">
-        <v>1.9482166700000001</v>
+        <v>1.8034083299999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,32 +946,32 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>58.350541669999998</v>
+        <v>58.426127780000002</v>
       </c>
       <c r="C33" s="2">
-        <v>1.8034083299999999</v>
+        <v>1.7078333299999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
-        <v>58.426127780000002</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.7078333299999999</v>
+      <c r="B34" s="3">
+        <v>58.2743122222222</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.9821869444444444</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3">
-        <v>58.2743122222222</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.9821869444444444</v>
+      <c r="B35" s="2">
+        <v>58.400072219999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.78525833</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,10 +979,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>58.400072219999998</v>
+        <v>58.403463889999998</v>
       </c>
       <c r="C36" s="2">
-        <v>1.78525833</v>
+        <v>1.7081111099999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,10 +990,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>58.403463889999998</v>
+        <v>58.453749999999999</v>
       </c>
       <c r="C37" s="2">
-        <v>1.7081111099999999</v>
+        <v>1.69205556</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,10 +1001,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>58.453749999999999</v>
+        <v>58.382241669999999</v>
       </c>
       <c r="C38" s="2">
-        <v>1.69205556</v>
+        <v>1.7127749999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,10 +1012,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>58.382241669999999</v>
+        <v>58.382169439999998</v>
       </c>
       <c r="C39" s="2">
-        <v>1.7127749999999999</v>
+        <v>1.7745333299999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,20 +1023,9 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>58.382169439999998</v>
+        <v>58.346499999999999</v>
       </c>
       <c r="C40" s="2">
-        <v>1.7745333299999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>58.346499999999999</v>
-      </c>
-      <c r="C41" s="2">
         <v>1.8901666699999999</v>
       </c>
     </row>
